--- a/razorpay python data.xlsx
+++ b/razorpay python data.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\StrongBase.edu\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E18C964-1260-4670-80C6-9260B0188141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="+h+bpJWGbF0tlrgSeevUqTL3lo2Dn03kUfrfqxG2HZI="/>
@@ -1794,32 +1803,33 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -1829,11 +1839,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="medium">
         <color rgb="FFCCCCCC"/>
@@ -1847,47 +1863,48 @@
       <bottom style="medium">
         <color rgb="FFCCCCCC"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -2077,28 +2094,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="E152" sqref="E152"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="36.86"/>
-    <col customWidth="1" min="2" max="2" width="14.43"/>
-    <col customWidth="1" min="3" max="3" width="39.43"/>
-    <col customWidth="1" min="4" max="4" width="10.86"/>
-    <col customWidth="1" min="5" max="5" width="10.43"/>
-    <col customWidth="1" min="6" max="26" width="8.71"/>
+    <col min="1" max="1" width="36.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2115,7 +2134,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -2132,7 +2151,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
+    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -2149,12 +2168,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
+    <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="4">
-        <v>9.502839531E9</v>
+        <v>9502839531</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>15</v>
@@ -2166,7 +2185,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
+    <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -2183,7 +2202,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
+    <row r="6" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -2200,12 +2219,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="4">
-        <v>8.977817787E9</v>
+        <v>8977817787</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>26</v>
@@ -2217,7 +2236,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
+    <row r="8" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
@@ -2234,7 +2253,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
+    <row r="9" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
@@ -2251,7 +2270,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
+    <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
@@ -2268,12 +2287,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
+    <row r="11" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B11" s="4">
-        <v>6.303398461E9</v>
+        <v>6303398461</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>41</v>
@@ -2285,7 +2304,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
+    <row r="12" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>43</v>
       </c>
@@ -2302,7 +2321,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
+    <row r="13" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>47</v>
       </c>
@@ -2319,7 +2338,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
+    <row r="14" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>51</v>
       </c>
@@ -2336,7 +2355,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
+    <row r="15" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>55</v>
       </c>
@@ -2353,7 +2372,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
+    <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>59</v>
       </c>
@@ -2370,7 +2389,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
+    <row r="17" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>63</v>
       </c>
@@ -2387,7 +2406,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
+    <row r="18" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>67</v>
       </c>
@@ -2404,7 +2423,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
+    <row r="19" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>71</v>
       </c>
@@ -2421,7 +2440,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
+    <row r="20" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>75</v>
       </c>
@@ -2438,7 +2457,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
+    <row r="21" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>79</v>
       </c>
@@ -2455,7 +2474,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" ht="14.25" customHeight="1">
+    <row r="22" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>83</v>
       </c>
@@ -2472,7 +2491,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" ht="14.25" customHeight="1">
+    <row r="23" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>87</v>
       </c>
@@ -2489,7 +2508,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" ht="14.25" customHeight="1">
+    <row r="24" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>91</v>
       </c>
@@ -2506,7 +2525,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" ht="14.25" customHeight="1">
+    <row r="25" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>95</v>
       </c>
@@ -2523,7 +2542,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
+    <row r="26" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>99</v>
       </c>
@@ -2540,7 +2559,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
+    <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>103</v>
       </c>
@@ -2557,7 +2576,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
+    <row r="28" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>107</v>
       </c>
@@ -2574,12 +2593,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" ht="14.25" customHeight="1">
+    <row r="29" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B29" s="4">
-        <v>9.50247611E9</v>
+        <v>9502476110</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>112</v>
@@ -2591,12 +2610,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="30" ht="14.25" customHeight="1">
+    <row r="30" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>114</v>
       </c>
       <c r="B30" s="4">
-        <v>8.519844459E9</v>
+        <v>8519844459</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>115</v>
@@ -2608,7 +2627,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" ht="14.25" customHeight="1">
+    <row r="31" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>117</v>
       </c>
@@ -2625,7 +2644,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="32" ht="14.25" customHeight="1">
+    <row r="32" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>121</v>
       </c>
@@ -2642,7 +2661,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="33" ht="14.25" customHeight="1">
+    <row r="33" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>125</v>
       </c>
@@ -2659,12 +2678,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="34" ht="14.25" customHeight="1">
+    <row r="34" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>129</v>
       </c>
       <c r="B34" s="4">
-        <v>7.013859848E9</v>
+        <v>7013859848</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>130</v>
@@ -2676,7 +2695,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="35" ht="14.25" customHeight="1">
+    <row r="35" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>132</v>
       </c>
@@ -2693,7 +2712,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="36" ht="14.25" customHeight="1">
+    <row r="36" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>136</v>
       </c>
@@ -2710,12 +2729,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="37" ht="14.25" customHeight="1">
+    <row r="37" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>140</v>
       </c>
       <c r="B37" s="4">
-        <v>8.074151928E9</v>
+        <v>8074151928</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>141</v>
@@ -2727,7 +2746,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="38" ht="14.25" customHeight="1">
+    <row r="38" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>143</v>
       </c>
@@ -2744,7 +2763,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="39" ht="14.25" customHeight="1">
+    <row r="39" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>147</v>
       </c>
@@ -2761,7 +2780,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="40" ht="14.25" customHeight="1">
+    <row r="40" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>151</v>
       </c>
@@ -2778,7 +2797,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="41" ht="14.25" customHeight="1">
+    <row r="41" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>155</v>
       </c>
@@ -2795,7 +2814,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="42" ht="14.25" customHeight="1">
+    <row r="42" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>159</v>
       </c>
@@ -2812,7 +2831,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="43" ht="14.25" customHeight="1">
+    <row r="43" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>163</v>
       </c>
@@ -2829,7 +2848,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="44" ht="14.25" customHeight="1">
+    <row r="44" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>167</v>
       </c>
@@ -2846,7 +2865,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="45" ht="14.25" customHeight="1">
+    <row r="45" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>171</v>
       </c>
@@ -2863,12 +2882,12 @@
         <v>174</v>
       </c>
     </row>
-    <row r="46" ht="14.25" customHeight="1">
+    <row r="46" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>175</v>
       </c>
       <c r="B46" s="4">
-        <v>7.569262578E9</v>
+        <v>7569262578</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>176</v>
@@ -2880,7 +2899,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="47" ht="14.25" customHeight="1">
+    <row r="47" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>178</v>
       </c>
@@ -2897,7 +2916,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="48" ht="14.25" customHeight="1">
+    <row r="48" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>182</v>
       </c>
@@ -2914,12 +2933,12 @@
         <v>185</v>
       </c>
     </row>
-    <row r="49" ht="14.25" customHeight="1">
+    <row r="49" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>186</v>
       </c>
       <c r="B49" s="4">
-        <v>7.013721454E9</v>
+        <v>7013721454</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>187</v>
@@ -2931,12 +2950,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="50" ht="14.25" customHeight="1">
+    <row r="50" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>189</v>
       </c>
       <c r="B50" s="4">
-        <v>6.302155993E9</v>
+        <v>6302155993</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>190</v>
@@ -2948,12 +2967,12 @@
         <v>191</v>
       </c>
     </row>
-    <row r="51" ht="14.25" customHeight="1">
+    <row r="51" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>192</v>
       </c>
       <c r="B51" s="4">
-        <v>9.90800586E9</v>
+        <v>9908005860</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>193</v>
@@ -2965,7 +2984,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="52" ht="14.25" customHeight="1">
+    <row r="52" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>195</v>
       </c>
@@ -2982,12 +3001,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="53" ht="14.25" customHeight="1">
+    <row r="53" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>199</v>
       </c>
       <c r="B53" s="4">
-        <v>9.550914863E9</v>
+        <v>9550914863</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>200</v>
@@ -2999,7 +3018,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="54" ht="14.25" customHeight="1">
+    <row r="54" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>202</v>
       </c>
@@ -3016,7 +3035,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="55" ht="14.25" customHeight="1">
+    <row r="55" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>206</v>
       </c>
@@ -3033,12 +3052,12 @@
         <v>209</v>
       </c>
     </row>
-    <row r="56" ht="14.25" customHeight="1">
+    <row r="56" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>210</v>
       </c>
       <c r="B56" s="4">
-        <v>9.059527296E9</v>
+        <v>9059527296</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>211</v>
@@ -3050,7 +3069,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="57" ht="14.25" customHeight="1">
+    <row r="57" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>213</v>
       </c>
@@ -3067,12 +3086,12 @@
         <v>216</v>
       </c>
     </row>
-    <row r="58" ht="14.25" customHeight="1">
+    <row r="58" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>217</v>
       </c>
       <c r="B58" s="4">
-        <v>9.347671466E9</v>
+        <v>9347671466</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>218</v>
@@ -3084,7 +3103,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="59" ht="14.25" customHeight="1">
+    <row r="59" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>220</v>
       </c>
@@ -3101,7 +3120,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="60" ht="14.25" customHeight="1">
+    <row r="60" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>224</v>
       </c>
@@ -3118,12 +3137,12 @@
         <v>227</v>
       </c>
     </row>
-    <row r="61" ht="14.25" customHeight="1">
+    <row r="61" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>228</v>
       </c>
       <c r="B61" s="4">
-        <v>9.398567182E9</v>
+        <v>9398567182</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>229</v>
@@ -3135,7 +3154,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="62" ht="14.25" customHeight="1">
+    <row r="62" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>231</v>
       </c>
@@ -3152,7 +3171,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="63" ht="14.25" customHeight="1">
+    <row r="63" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>235</v>
       </c>
@@ -3169,7 +3188,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="64" ht="14.25" customHeight="1">
+    <row r="64" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>239</v>
       </c>
@@ -3186,7 +3205,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="65" ht="14.25" customHeight="1">
+    <row r="65" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>243</v>
       </c>
@@ -3203,12 +3222,12 @@
         <v>246</v>
       </c>
     </row>
-    <row r="66" ht="14.25" customHeight="1">
+    <row r="66" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>247</v>
       </c>
       <c r="B66" s="4">
-        <v>9.676494965E9</v>
+        <v>9676494965</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>248</v>
@@ -3220,7 +3239,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="67" ht="14.25" customHeight="1">
+    <row r="67" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>250</v>
       </c>
@@ -3237,7 +3256,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="68" ht="14.25" customHeight="1">
+    <row r="68" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>254</v>
       </c>
@@ -3254,7 +3273,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="69" ht="14.25" customHeight="1">
+    <row r="69" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>258</v>
       </c>
@@ -3271,7 +3290,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="70" ht="14.25" customHeight="1">
+    <row r="70" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>262</v>
       </c>
@@ -3288,7 +3307,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="71" ht="14.25" customHeight="1">
+    <row r="71" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>266</v>
       </c>
@@ -3305,7 +3324,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="72" ht="14.25" customHeight="1">
+    <row r="72" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>270</v>
       </c>
@@ -3322,7 +3341,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="73" ht="14.25" customHeight="1">
+    <row r="73" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>274</v>
       </c>
@@ -3339,7 +3358,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="74" ht="14.25" customHeight="1">
+    <row r="74" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>278</v>
       </c>
@@ -3356,7 +3375,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="75" ht="14.25" customHeight="1">
+    <row r="75" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>282</v>
       </c>
@@ -3373,7 +3392,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="76" ht="14.25" customHeight="1">
+    <row r="76" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>286</v>
       </c>
@@ -3390,7 +3409,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="77" ht="14.25" customHeight="1">
+    <row r="77" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>290</v>
       </c>
@@ -3407,7 +3426,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="78" ht="14.25" customHeight="1">
+    <row r="78" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>294</v>
       </c>
@@ -3424,7 +3443,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="79" ht="14.25" customHeight="1">
+    <row r="79" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>298</v>
       </c>
@@ -3441,7 +3460,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="80" ht="14.25" customHeight="1">
+    <row r="80" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>302</v>
       </c>
@@ -3458,7 +3477,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="81" ht="14.25" customHeight="1">
+    <row r="81" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>306</v>
       </c>
@@ -3475,7 +3494,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="82" ht="14.25" customHeight="1">
+    <row r="82" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>310</v>
       </c>
@@ -3492,7 +3511,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="83" ht="14.25" customHeight="1">
+    <row r="83" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>314</v>
       </c>
@@ -3509,7 +3528,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="84" ht="14.25" customHeight="1">
+    <row r="84" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>318</v>
       </c>
@@ -3526,7 +3545,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="85" ht="14.25" customHeight="1">
+    <row r="85" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>322</v>
       </c>
@@ -3543,7 +3562,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="86" ht="14.25" customHeight="1">
+    <row r="86" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>326</v>
       </c>
@@ -3560,12 +3579,12 @@
         <v>329</v>
       </c>
     </row>
-    <row r="87" ht="14.25" customHeight="1">
+    <row r="87" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>330</v>
       </c>
       <c r="B87" s="4">
-        <v>8.555092944E9</v>
+        <v>8555092944</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>331</v>
@@ -3577,7 +3596,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="88" ht="14.25" customHeight="1">
+    <row r="88" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>333</v>
       </c>
@@ -3594,12 +3613,12 @@
         <v>336</v>
       </c>
     </row>
-    <row r="89" ht="14.25" customHeight="1">
+    <row r="89" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>337</v>
       </c>
       <c r="B89" s="4">
-        <v>9.000947248E9</v>
+        <v>9000947248</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>338</v>
@@ -3611,7 +3630,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="90" ht="14.25" customHeight="1">
+    <row r="90" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>340</v>
       </c>
@@ -3628,7 +3647,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="91" ht="14.25" customHeight="1">
+    <row r="91" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>344</v>
       </c>
@@ -3645,7 +3664,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="92" ht="14.25" customHeight="1">
+    <row r="92" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>348</v>
       </c>
@@ -3662,7 +3681,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="93" ht="14.25" customHeight="1">
+    <row r="93" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>352</v>
       </c>
@@ -3679,7 +3698,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="94" ht="14.25" customHeight="1">
+    <row r="94" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>356</v>
       </c>
@@ -3696,7 +3715,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="95" ht="14.25" customHeight="1">
+    <row r="95" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>360</v>
       </c>
@@ -3713,12 +3732,12 @@
         <v>363</v>
       </c>
     </row>
-    <row r="96" ht="14.25" customHeight="1">
+    <row r="96" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>364</v>
       </c>
       <c r="B96" s="4">
-        <v>9.398410775E9</v>
+        <v>9398410775</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>365</v>
@@ -3730,7 +3749,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="97" ht="14.25" customHeight="1">
+    <row r="97" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>367</v>
       </c>
@@ -3747,7 +3766,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="98" ht="14.25" customHeight="1">
+    <row r="98" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>371</v>
       </c>
@@ -3764,7 +3783,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="99" ht="14.25" customHeight="1">
+    <row r="99" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>375</v>
       </c>
@@ -3781,7 +3800,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="100" ht="14.25" customHeight="1">
+    <row r="100" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>379</v>
       </c>
@@ -3798,7 +3817,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="101" ht="14.25" customHeight="1">
+    <row r="101" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>383</v>
       </c>
@@ -3811,11 +3830,11 @@
       <c r="D101" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E101" s="5" t="s">
+      <c r="E101" s="2" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="102" ht="14.25" customHeight="1">
+    <row r="102" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>387</v>
       </c>
@@ -3828,11 +3847,11 @@
       <c r="D102" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E102" s="5" t="s">
+      <c r="E102" s="2" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="103" ht="14.25" customHeight="1">
+    <row r="103" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>391</v>
       </c>
@@ -3845,11 +3864,11 @@
       <c r="D103" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E103" s="5" t="s">
+      <c r="E103" s="2" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="104" ht="14.25" customHeight="1">
+    <row r="104" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>395</v>
       </c>
@@ -3862,11 +3881,11 @@
       <c r="D104" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E104" s="5" t="s">
+      <c r="E104" s="2" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="105" ht="14.25" customHeight="1">
+    <row r="105" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>399</v>
       </c>
@@ -3879,11 +3898,11 @@
       <c r="D105" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E105" s="5" t="s">
+      <c r="E105" s="2" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="106" ht="14.25" customHeight="1">
+    <row r="106" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>403</v>
       </c>
@@ -3896,16 +3915,16 @@
       <c r="D106" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E106" s="5" t="s">
+      <c r="E106" s="2" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="107" ht="14.25" customHeight="1">
+    <row r="107" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>407</v>
       </c>
       <c r="B107" s="4">
-        <v>9.391066821E9</v>
+        <v>9391066821</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>408</v>
@@ -3913,11 +3932,11 @@
       <c r="D107" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E107" s="5" t="s">
+      <c r="E107" s="2" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="108" ht="14.25" customHeight="1">
+    <row r="108" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>410</v>
       </c>
@@ -3930,11 +3949,11 @@
       <c r="D108" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E108" s="5" t="s">
+      <c r="E108" s="2" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="109" ht="14.25" customHeight="1">
+    <row r="109" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>414</v>
       </c>
@@ -3947,11 +3966,11 @@
       <c r="D109" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E109" s="5" t="s">
+      <c r="E109" s="2" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="110" ht="14.25" customHeight="1">
+    <row r="110" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>418</v>
       </c>
@@ -3964,11 +3983,11 @@
       <c r="D110" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E110" s="5" t="s">
+      <c r="E110" s="2" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="111" ht="14.25" customHeight="1">
+    <row r="111" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>422</v>
       </c>
@@ -3981,16 +4000,16 @@
       <c r="D111" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E111" s="5" t="s">
+      <c r="E111" s="2" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="112" ht="14.25" customHeight="1">
+    <row r="112" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>426</v>
       </c>
       <c r="B112" s="4">
-        <v>8.309008545E9</v>
+        <v>8309008545</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>427</v>
@@ -3998,11 +4017,11 @@
       <c r="D112" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E112" s="5" t="s">
+      <c r="E112" s="2" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="113" ht="14.25" customHeight="1">
+    <row r="113" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>429</v>
       </c>
@@ -4015,11 +4034,11 @@
       <c r="D113" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E113" s="5" t="s">
+      <c r="E113" s="2" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="114" ht="14.25" customHeight="1">
+    <row r="114" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>433</v>
       </c>
@@ -4032,11 +4051,11 @@
       <c r="D114" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E114" s="5" t="s">
+      <c r="E114" s="2" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="115" ht="14.25" customHeight="1">
+    <row r="115" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>437</v>
       </c>
@@ -4049,11 +4068,11 @@
       <c r="D115" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E115" s="5" t="s">
+      <c r="E115" s="2" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="116" ht="14.25" customHeight="1">
+    <row r="116" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>441</v>
       </c>
@@ -4066,11 +4085,11 @@
       <c r="D116" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E116" s="5" t="s">
+      <c r="E116" s="2" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="117" ht="14.25" customHeight="1">
+    <row r="117" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>445</v>
       </c>
@@ -4083,16 +4102,16 @@
       <c r="D117" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E117" s="5" t="s">
+      <c r="E117" s="2" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="118" ht="14.25" customHeight="1">
+    <row r="118" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>449</v>
       </c>
       <c r="B118" s="4">
-        <v>7.013666069E9</v>
+        <v>7013666069</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>450</v>
@@ -4100,11 +4119,11 @@
       <c r="D118" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E118" s="5" t="s">
+      <c r="E118" s="2" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="119" ht="14.25" customHeight="1">
+    <row r="119" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>452</v>
       </c>
@@ -4117,11 +4136,11 @@
       <c r="D119" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E119" s="5" t="s">
+      <c r="E119" s="2" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="120" ht="14.25" customHeight="1">
+    <row r="120" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>456</v>
       </c>
@@ -4134,11 +4153,11 @@
       <c r="D120" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E120" s="5" t="s">
+      <c r="E120" s="2" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="121" ht="14.25" customHeight="1">
+    <row r="121" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>460</v>
       </c>
@@ -4151,16 +4170,16 @@
       <c r="D121" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E121" s="5" t="s">
+      <c r="E121" s="2" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="122" ht="14.25" customHeight="1">
+    <row r="122" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>464</v>
       </c>
       <c r="B122" s="4">
-        <v>8.24786889E9</v>
+        <v>8247868890</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>465</v>
@@ -4168,11 +4187,11 @@
       <c r="D122" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E122" s="5" t="s">
+      <c r="E122" s="2" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="123" ht="14.25" customHeight="1">
+    <row r="123" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>467</v>
       </c>
@@ -4185,11 +4204,11 @@
       <c r="D123" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E123" s="5" t="s">
+      <c r="E123" s="2" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="124" ht="14.25" customHeight="1">
+    <row r="124" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>471</v>
       </c>
@@ -4202,11 +4221,11 @@
       <c r="D124" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E124" s="5" t="s">
+      <c r="E124" s="2" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="125" ht="14.25" customHeight="1">
+    <row r="125" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>475</v>
       </c>
@@ -4219,11 +4238,11 @@
       <c r="D125" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E125" s="5" t="s">
+      <c r="E125" s="2" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="126" ht="14.25" customHeight="1">
+    <row r="126" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>479</v>
       </c>
@@ -4236,1352 +4255,1351 @@
       <c r="D126" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E126" s="5" t="s">
+      <c r="E126" s="2" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="127" ht="14.25" customHeight="1">
-      <c r="A127" s="6" t="s">
+    <row r="127" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="B127" s="6" t="s">
+      <c r="B127" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="C127" s="6" t="s">
+      <c r="C127" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="D127" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E127" s="5" t="s">
+      <c r="D127" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="128" ht="14.25" customHeight="1">
-      <c r="A128" s="7" t="s">
+    <row r="128" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="B128" s="8">
-        <v>6.301954646E9</v>
-      </c>
-      <c r="C128" s="7" t="s">
+      <c r="B128" s="7">
+        <v>6301954646</v>
+      </c>
+      <c r="C128" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="D128" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E128" s="5" t="s">
+      <c r="D128" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="129" ht="14.25" customHeight="1">
-      <c r="A129" s="6" t="s">
+    <row r="129" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="B129" s="6" t="s">
+      <c r="B129" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="C129" s="6" t="s">
+      <c r="C129" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="D129" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E129" s="5" t="s">
+      <c r="D129" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="130" ht="14.25" customHeight="1">
-      <c r="A130" s="6" t="s">
+    <row r="130" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="B130" s="6" t="s">
+      <c r="B130" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="C130" s="6" t="s">
+      <c r="C130" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="D130" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E130" s="5" t="s">
+      <c r="D130" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="131" ht="14.25" customHeight="1">
-      <c r="A131" s="6" t="s">
+    <row r="131" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="B131" s="6" t="s">
+      <c r="B131" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="C131" s="6" t="s">
+      <c r="C131" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="D131" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E131" s="5" t="s">
+      <c r="D131" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="132" ht="14.25" customHeight="1">
-      <c r="A132" s="6" t="s">
+    <row r="132" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="B132" s="6" t="s">
+      <c r="B132" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="C132" s="6" t="s">
+      <c r="C132" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D132" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E132" s="5" t="s">
+      <c r="D132" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="133" ht="14.25" customHeight="1">
-      <c r="A133" s="6" t="s">
+    <row r="133" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="B133" s="6" t="s">
+      <c r="B133" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="C133" s="6" t="s">
+      <c r="C133" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D133" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E133" s="5" t="s">
+      <c r="D133" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="134" ht="14.25" customHeight="1">
-      <c r="A134" s="6" t="s">
+    <row r="134" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="B134" s="6" t="s">
+      <c r="B134" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="C134" s="6" t="s">
+      <c r="C134" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="D134" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E134" s="5" t="s">
+      <c r="D134" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="135" ht="14.25" customHeight="1">
-      <c r="A135" s="6" t="s">
+    <row r="135" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="B135" s="6" t="s">
+      <c r="B135" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="C135" s="6" t="s">
+      <c r="C135" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="D135" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E135" s="5" t="s">
+      <c r="D135" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="136" ht="14.25" customHeight="1">
-      <c r="A136" s="7" t="s">
+    <row r="136" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="B136" s="8">
-        <v>7.993073849E9</v>
-      </c>
-      <c r="C136" s="7" t="s">
+      <c r="B136" s="7">
+        <v>7993073849</v>
+      </c>
+      <c r="C136" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="D136" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E136" s="5" t="s">
+      <c r="D136" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="137" ht="14.25" customHeight="1">
-      <c r="A137" s="6" t="s">
+    <row r="137" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="B137" s="6" t="s">
+      <c r="B137" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="C137" s="6" t="s">
+      <c r="C137" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="D137" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E137" s="5" t="s">
+      <c r="D137" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="138" ht="14.25" customHeight="1">
-      <c r="A138" s="6" t="s">
+    <row r="138" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="B138" s="6" t="s">
+      <c r="B138" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="C138" s="6" t="s">
+      <c r="C138" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="D138" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E138" s="5" t="s">
+      <c r="D138" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="139" ht="14.25" customHeight="1">
-      <c r="A139" s="6" t="s">
+    <row r="139" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="B139" s="6" t="s">
+      <c r="B139" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="C139" s="6" t="s">
+      <c r="C139" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="D139" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E139" s="5" t="s">
+      <c r="D139" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="140" ht="14.25" customHeight="1">
-      <c r="A140" s="7" t="s">
+    <row r="140" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="B140" s="8">
-        <v>8.52308976E9</v>
-      </c>
-      <c r="C140" s="7" t="s">
+      <c r="B140" s="7">
+        <v>8523089760</v>
+      </c>
+      <c r="C140" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="D140" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E140" s="5" t="s">
+      <c r="D140" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="141" ht="14.25" customHeight="1">
-      <c r="A141" s="6" t="s">
+    <row r="141" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="B141" s="6" t="s">
+      <c r="B141" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="C141" s="6" t="s">
+      <c r="C141" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="D141" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E141" s="5" t="s">
+      <c r="D141" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="142" ht="14.25" customHeight="1">
-      <c r="A142" s="6" t="s">
+    <row r="142" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="B142" s="6" t="s">
+      <c r="B142" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="C142" s="6" t="s">
+      <c r="C142" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="D142" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E142" s="5" t="s">
+      <c r="D142" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="143" ht="14.25" customHeight="1">
-      <c r="A143" s="7" t="s">
+    <row r="143" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="B143" s="8">
-        <v>6.305396544E9</v>
-      </c>
-      <c r="C143" s="7" t="s">
+      <c r="B143" s="7">
+        <v>6305396544</v>
+      </c>
+      <c r="C143" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="D143" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E143" s="5" t="s">
+      <c r="D143" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="144" ht="14.25" customHeight="1">
-      <c r="A144" s="6" t="s">
+    <row r="144" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="B144" s="6">
-        <v>6.281904116E9</v>
-      </c>
-      <c r="C144" s="6" t="s">
+      <c r="B144" s="5">
+        <v>6281904116</v>
+      </c>
+      <c r="C144" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="D144" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E144" s="5" t="s">
+      <c r="D144" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="145" ht="14.25" customHeight="1">
-      <c r="A145" s="6" t="s">
+    <row r="145" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="B145" s="6" t="s">
+      <c r="B145" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="C145" s="6" t="s">
+      <c r="C145" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="D145" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E145" s="5" t="s">
+      <c r="D145" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E145" s="2" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="146" ht="14.25" customHeight="1">
-      <c r="A146" s="6" t="s">
+    <row r="146" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="B146" s="6" t="s">
+      <c r="B146" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="C146" s="6" t="s">
+      <c r="C146" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="D146" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E146" s="5" t="s">
+      <c r="D146" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E146" s="2" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="147" ht="14.25" customHeight="1">
-      <c r="A147" s="6" t="s">
+    <row r="147" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="B147" s="6" t="s">
+      <c r="B147" s="5" t="s">
         <v>558</v>
       </c>
-      <c r="C147" s="6" t="s">
+      <c r="C147" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="D147" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E147" s="5" t="s">
+      <c r="D147" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="148" ht="14.25" customHeight="1">
-      <c r="A148" s="6" t="s">
+    <row r="148" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="B148" s="6" t="s">
+      <c r="B148" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="C148" s="6" t="s">
+      <c r="C148" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="D148" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E148" s="5" t="s">
+      <c r="D148" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="149" ht="14.25" customHeight="1">
-      <c r="A149" s="6" t="s">
+    <row r="149" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="B149" s="6" t="s">
+      <c r="B149" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="C149" s="6" t="s">
+      <c r="C149" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="D149" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E149" s="5" t="s">
+      <c r="D149" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E149" s="2" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="150" ht="14.25" customHeight="1">
-      <c r="A150" s="6" t="s">
+    <row r="150" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="5" t="s">
         <v>569</v>
       </c>
-      <c r="B150" s="6" t="s">
+      <c r="B150" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="C150" s="6" t="s">
+      <c r="C150" s="5" t="s">
         <v>571</v>
       </c>
-      <c r="D150" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E150" s="5" t="s">
+      <c r="D150" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E150" s="2" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="151" ht="14.25" customHeight="1">
-      <c r="A151" s="6" t="s">
+    <row r="151" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="B151" s="6" t="s">
+      <c r="B151" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="C151" s="6" t="s">
+      <c r="C151" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="D151" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E151" s="5" t="s">
+      <c r="D151" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="152" ht="14.25" customHeight="1">
-      <c r="A152" s="7" t="s">
+    <row r="152" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="B152" s="8">
-        <v>9.014189266E9</v>
-      </c>
-      <c r="C152" s="7" t="s">
+      <c r="B152" s="7">
+        <v>9014189266</v>
+      </c>
+      <c r="C152" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="D152" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E152" s="5" t="s">
+      <c r="D152" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E152" s="2" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="153" ht="14.25" customHeight="1">
-      <c r="A153" s="6" t="s">
+    <row r="153" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="B153" s="6" t="s">
+      <c r="B153" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="C153" s="6" t="s">
+      <c r="C153" s="5" t="s">
         <v>582</v>
       </c>
-      <c r="D153" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E153" s="5" t="s">
+      <c r="D153" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E153" s="2" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="154" ht="14.25" customHeight="1">
-      <c r="A154" s="7" t="s">
+    <row r="154" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="B154" s="8">
-        <v>7.780446412E9</v>
-      </c>
-      <c r="C154" s="7" t="s">
+      <c r="B154" s="7">
+        <v>7780446412</v>
+      </c>
+      <c r="C154" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="D154" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E154" s="5" t="s">
+      <c r="D154" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E154" s="2" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="155" ht="14.25" customHeight="1">
-      <c r="A155" s="6" t="s">
+    <row r="155" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="B155" s="6" t="s">
+      <c r="B155" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="C155" s="6" t="s">
+      <c r="C155" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="D155" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E155" s="5" t="s">
+      <c r="D155" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E155" s="2" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="156" ht="14.25" customHeight="1"/>
-    <row r="157" ht="14.25" customHeight="1"/>
-    <row r="158" ht="14.25" customHeight="1"/>
-    <row r="159" ht="14.25" customHeight="1"/>
-    <row r="160" ht="14.25" customHeight="1"/>
-    <row r="161" ht="14.25" customHeight="1"/>
-    <row r="162" ht="14.25" customHeight="1"/>
-    <row r="163" ht="14.25" customHeight="1"/>
-    <row r="164" ht="14.25" customHeight="1"/>
-    <row r="165" ht="14.25" customHeight="1"/>
-    <row r="166" ht="14.25" customHeight="1"/>
-    <row r="167" ht="14.25" customHeight="1"/>
-    <row r="168" ht="14.25" customHeight="1"/>
-    <row r="169" ht="14.25" customHeight="1"/>
-    <row r="170" ht="14.25" customHeight="1"/>
-    <row r="171" ht="14.25" customHeight="1"/>
-    <row r="172" ht="14.25" customHeight="1"/>
-    <row r="173" ht="14.25" customHeight="1"/>
-    <row r="174" ht="14.25" customHeight="1"/>
-    <row r="175" ht="14.25" customHeight="1"/>
-    <row r="176" ht="14.25" customHeight="1"/>
-    <row r="177" ht="14.25" customHeight="1"/>
-    <row r="178" ht="14.25" customHeight="1"/>
-    <row r="179" ht="14.25" customHeight="1"/>
-    <row r="180" ht="14.25" customHeight="1"/>
-    <row r="181" ht="14.25" customHeight="1"/>
-    <row r="182" ht="14.25" customHeight="1"/>
-    <row r="183" ht="14.25" customHeight="1"/>
-    <row r="184" ht="14.25" customHeight="1"/>
-    <row r="185" ht="14.25" customHeight="1"/>
-    <row r="186" ht="14.25" customHeight="1"/>
-    <row r="187" ht="14.25" customHeight="1"/>
-    <row r="188" ht="14.25" customHeight="1"/>
-    <row r="189" ht="14.25" customHeight="1"/>
-    <row r="190" ht="14.25" customHeight="1"/>
-    <row r="191" ht="14.25" customHeight="1"/>
-    <row r="192" ht="14.25" customHeight="1"/>
-    <row r="193" ht="14.25" customHeight="1"/>
-    <row r="194" ht="14.25" customHeight="1"/>
-    <row r="195" ht="14.25" customHeight="1"/>
-    <row r="196" ht="14.25" customHeight="1"/>
-    <row r="197" ht="14.25" customHeight="1"/>
-    <row r="198" ht="14.25" customHeight="1"/>
-    <row r="199" ht="14.25" customHeight="1"/>
-    <row r="200" ht="14.25" customHeight="1"/>
-    <row r="201" ht="14.25" customHeight="1"/>
-    <row r="202" ht="14.25" customHeight="1"/>
-    <row r="203" ht="14.25" customHeight="1"/>
-    <row r="204" ht="14.25" customHeight="1"/>
-    <row r="205" ht="14.25" customHeight="1"/>
-    <row r="206" ht="14.25" customHeight="1"/>
-    <row r="207" ht="14.25" customHeight="1"/>
-    <row r="208" ht="14.25" customHeight="1"/>
-    <row r="209" ht="14.25" customHeight="1"/>
-    <row r="210" ht="14.25" customHeight="1"/>
-    <row r="211" ht="14.25" customHeight="1"/>
-    <row r="212" ht="14.25" customHeight="1"/>
-    <row r="213" ht="14.25" customHeight="1"/>
-    <row r="214" ht="14.25" customHeight="1"/>
-    <row r="215" ht="14.25" customHeight="1"/>
-    <row r="216" ht="14.25" customHeight="1"/>
-    <row r="217" ht="14.25" customHeight="1"/>
-    <row r="218" ht="14.25" customHeight="1"/>
-    <row r="219" ht="14.25" customHeight="1"/>
-    <row r="220" ht="14.25" customHeight="1"/>
-    <row r="221" ht="14.25" customHeight="1"/>
-    <row r="222" ht="14.25" customHeight="1"/>
-    <row r="223" ht="14.25" customHeight="1"/>
-    <row r="224" ht="14.25" customHeight="1"/>
-    <row r="225" ht="14.25" customHeight="1"/>
-    <row r="226" ht="14.25" customHeight="1"/>
-    <row r="227" ht="14.25" customHeight="1"/>
-    <row r="228" ht="14.25" customHeight="1"/>
-    <row r="229" ht="14.25" customHeight="1"/>
-    <row r="230" ht="14.25" customHeight="1"/>
-    <row r="231" ht="14.25" customHeight="1"/>
-    <row r="232" ht="14.25" customHeight="1"/>
-    <row r="233" ht="14.25" customHeight="1"/>
-    <row r="234" ht="14.25" customHeight="1"/>
-    <row r="235" ht="14.25" customHeight="1"/>
-    <row r="236" ht="14.25" customHeight="1"/>
-    <row r="237" ht="14.25" customHeight="1"/>
-    <row r="238" ht="14.25" customHeight="1"/>
-    <row r="239" ht="14.25" customHeight="1"/>
-    <row r="240" ht="14.25" customHeight="1"/>
-    <row r="241" ht="14.25" customHeight="1"/>
-    <row r="242" ht="14.25" customHeight="1"/>
-    <row r="243" ht="14.25" customHeight="1"/>
-    <row r="244" ht="14.25" customHeight="1"/>
-    <row r="245" ht="14.25" customHeight="1"/>
-    <row r="246" ht="14.25" customHeight="1"/>
-    <row r="247" ht="14.25" customHeight="1"/>
-    <row r="248" ht="14.25" customHeight="1"/>
-    <row r="249" ht="14.25" customHeight="1"/>
-    <row r="250" ht="14.25" customHeight="1"/>
-    <row r="251" ht="14.25" customHeight="1"/>
-    <row r="252" ht="14.25" customHeight="1"/>
-    <row r="253" ht="14.25" customHeight="1"/>
-    <row r="254" ht="14.25" customHeight="1"/>
-    <row r="255" ht="14.25" customHeight="1"/>
-    <row r="256" ht="14.25" customHeight="1"/>
-    <row r="257" ht="14.25" customHeight="1"/>
-    <row r="258" ht="14.25" customHeight="1"/>
-    <row r="259" ht="14.25" customHeight="1"/>
-    <row r="260" ht="14.25" customHeight="1"/>
-    <row r="261" ht="14.25" customHeight="1"/>
-    <row r="262" ht="14.25" customHeight="1"/>
-    <row r="263" ht="14.25" customHeight="1"/>
-    <row r="264" ht="14.25" customHeight="1"/>
-    <row r="265" ht="14.25" customHeight="1"/>
-    <row r="266" ht="14.25" customHeight="1"/>
-    <row r="267" ht="14.25" customHeight="1"/>
-    <row r="268" ht="14.25" customHeight="1"/>
-    <row r="269" ht="14.25" customHeight="1"/>
-    <row r="270" ht="14.25" customHeight="1"/>
-    <row r="271" ht="14.25" customHeight="1"/>
-    <row r="272" ht="14.25" customHeight="1"/>
-    <row r="273" ht="14.25" customHeight="1"/>
-    <row r="274" ht="14.25" customHeight="1"/>
-    <row r="275" ht="14.25" customHeight="1"/>
-    <row r="276" ht="14.25" customHeight="1"/>
-    <row r="277" ht="14.25" customHeight="1"/>
-    <row r="278" ht="14.25" customHeight="1"/>
-    <row r="279" ht="14.25" customHeight="1"/>
-    <row r="280" ht="14.25" customHeight="1"/>
-    <row r="281" ht="14.25" customHeight="1"/>
-    <row r="282" ht="14.25" customHeight="1"/>
-    <row r="283" ht="14.25" customHeight="1"/>
-    <row r="284" ht="14.25" customHeight="1"/>
-    <row r="285" ht="14.25" customHeight="1"/>
-    <row r="286" ht="14.25" customHeight="1"/>
-    <row r="287" ht="14.25" customHeight="1"/>
-    <row r="288" ht="14.25" customHeight="1"/>
-    <row r="289" ht="14.25" customHeight="1"/>
-    <row r="290" ht="14.25" customHeight="1"/>
-    <row r="291" ht="14.25" customHeight="1"/>
-    <row r="292" ht="14.25" customHeight="1"/>
-    <row r="293" ht="14.25" customHeight="1"/>
-    <row r="294" ht="14.25" customHeight="1"/>
-    <row r="295" ht="14.25" customHeight="1"/>
-    <row r="296" ht="14.25" customHeight="1"/>
-    <row r="297" ht="14.25" customHeight="1"/>
-    <row r="298" ht="14.25" customHeight="1"/>
-    <row r="299" ht="14.25" customHeight="1"/>
-    <row r="300" ht="14.25" customHeight="1"/>
-    <row r="301" ht="14.25" customHeight="1"/>
-    <row r="302" ht="14.25" customHeight="1"/>
-    <row r="303" ht="14.25" customHeight="1"/>
-    <row r="304" ht="14.25" customHeight="1"/>
-    <row r="305" ht="14.25" customHeight="1"/>
-    <row r="306" ht="14.25" customHeight="1"/>
-    <row r="307" ht="14.25" customHeight="1"/>
-    <row r="308" ht="14.25" customHeight="1"/>
-    <row r="309" ht="14.25" customHeight="1"/>
-    <row r="310" ht="14.25" customHeight="1"/>
-    <row r="311" ht="14.25" customHeight="1"/>
-    <row r="312" ht="14.25" customHeight="1"/>
-    <row r="313" ht="14.25" customHeight="1"/>
-    <row r="314" ht="14.25" customHeight="1"/>
-    <row r="315" ht="14.25" customHeight="1"/>
-    <row r="316" ht="14.25" customHeight="1"/>
-    <row r="317" ht="14.25" customHeight="1"/>
-    <row r="318" ht="14.25" customHeight="1"/>
-    <row r="319" ht="14.25" customHeight="1"/>
-    <row r="320" ht="14.25" customHeight="1"/>
-    <row r="321" ht="14.25" customHeight="1"/>
-    <row r="322" ht="14.25" customHeight="1"/>
-    <row r="323" ht="14.25" customHeight="1"/>
-    <row r="324" ht="14.25" customHeight="1"/>
-    <row r="325" ht="14.25" customHeight="1"/>
-    <row r="326" ht="14.25" customHeight="1"/>
-    <row r="327" ht="14.25" customHeight="1"/>
-    <row r="328" ht="14.25" customHeight="1"/>
-    <row r="329" ht="14.25" customHeight="1"/>
-    <row r="330" ht="14.25" customHeight="1"/>
-    <row r="331" ht="14.25" customHeight="1"/>
-    <row r="332" ht="14.25" customHeight="1"/>
-    <row r="333" ht="14.25" customHeight="1"/>
-    <row r="334" ht="14.25" customHeight="1"/>
-    <row r="335" ht="14.25" customHeight="1"/>
-    <row r="336" ht="14.25" customHeight="1"/>
-    <row r="337" ht="14.25" customHeight="1"/>
-    <row r="338" ht="14.25" customHeight="1"/>
-    <row r="339" ht="14.25" customHeight="1"/>
-    <row r="340" ht="14.25" customHeight="1"/>
-    <row r="341" ht="14.25" customHeight="1"/>
-    <row r="342" ht="14.25" customHeight="1"/>
-    <row r="343" ht="14.25" customHeight="1"/>
-    <row r="344" ht="14.25" customHeight="1"/>
-    <row r="345" ht="14.25" customHeight="1"/>
-    <row r="346" ht="14.25" customHeight="1"/>
-    <row r="347" ht="14.25" customHeight="1"/>
-    <row r="348" ht="14.25" customHeight="1"/>
-    <row r="349" ht="14.25" customHeight="1"/>
-    <row r="350" ht="14.25" customHeight="1"/>
-    <row r="351" ht="14.25" customHeight="1"/>
-    <row r="352" ht="14.25" customHeight="1"/>
-    <row r="353" ht="14.25" customHeight="1"/>
-    <row r="354" ht="14.25" customHeight="1"/>
-    <row r="355" ht="14.25" customHeight="1"/>
-    <row r="356" ht="14.25" customHeight="1"/>
-    <row r="357" ht="14.25" customHeight="1"/>
-    <row r="358" ht="14.25" customHeight="1"/>
-    <row r="359" ht="14.25" customHeight="1"/>
-    <row r="360" ht="14.25" customHeight="1"/>
-    <row r="361" ht="14.25" customHeight="1"/>
-    <row r="362" ht="14.25" customHeight="1"/>
-    <row r="363" ht="14.25" customHeight="1"/>
-    <row r="364" ht="14.25" customHeight="1"/>
-    <row r="365" ht="14.25" customHeight="1"/>
-    <row r="366" ht="14.25" customHeight="1"/>
-    <row r="367" ht="14.25" customHeight="1"/>
-    <row r="368" ht="14.25" customHeight="1"/>
-    <row r="369" ht="14.25" customHeight="1"/>
-    <row r="370" ht="14.25" customHeight="1"/>
-    <row r="371" ht="14.25" customHeight="1"/>
-    <row r="372" ht="14.25" customHeight="1"/>
-    <row r="373" ht="14.25" customHeight="1"/>
-    <row r="374" ht="14.25" customHeight="1"/>
-    <row r="375" ht="14.25" customHeight="1"/>
-    <row r="376" ht="14.25" customHeight="1"/>
-    <row r="377" ht="14.25" customHeight="1"/>
-    <row r="378" ht="14.25" customHeight="1"/>
-    <row r="379" ht="14.25" customHeight="1"/>
-    <row r="380" ht="14.25" customHeight="1"/>
-    <row r="381" ht="14.25" customHeight="1"/>
-    <row r="382" ht="14.25" customHeight="1"/>
-    <row r="383" ht="14.25" customHeight="1"/>
-    <row r="384" ht="14.25" customHeight="1"/>
-    <row r="385" ht="14.25" customHeight="1"/>
-    <row r="386" ht="14.25" customHeight="1"/>
-    <row r="387" ht="14.25" customHeight="1"/>
-    <row r="388" ht="14.25" customHeight="1"/>
-    <row r="389" ht="14.25" customHeight="1"/>
-    <row r="390" ht="14.25" customHeight="1"/>
-    <row r="391" ht="14.25" customHeight="1"/>
-    <row r="392" ht="14.25" customHeight="1"/>
-    <row r="393" ht="14.25" customHeight="1"/>
-    <row r="394" ht="14.25" customHeight="1"/>
-    <row r="395" ht="14.25" customHeight="1"/>
-    <row r="396" ht="14.25" customHeight="1"/>
-    <row r="397" ht="14.25" customHeight="1"/>
-    <row r="398" ht="14.25" customHeight="1"/>
-    <row r="399" ht="14.25" customHeight="1"/>
-    <row r="400" ht="14.25" customHeight="1"/>
-    <row r="401" ht="14.25" customHeight="1"/>
-    <row r="402" ht="14.25" customHeight="1"/>
-    <row r="403" ht="14.25" customHeight="1"/>
-    <row r="404" ht="14.25" customHeight="1"/>
-    <row r="405" ht="14.25" customHeight="1"/>
-    <row r="406" ht="14.25" customHeight="1"/>
-    <row r="407" ht="14.25" customHeight="1"/>
-    <row r="408" ht="14.25" customHeight="1"/>
-    <row r="409" ht="14.25" customHeight="1"/>
-    <row r="410" ht="14.25" customHeight="1"/>
-    <row r="411" ht="14.25" customHeight="1"/>
-    <row r="412" ht="14.25" customHeight="1"/>
-    <row r="413" ht="14.25" customHeight="1"/>
-    <row r="414" ht="14.25" customHeight="1"/>
-    <row r="415" ht="14.25" customHeight="1"/>
-    <row r="416" ht="14.25" customHeight="1"/>
-    <row r="417" ht="14.25" customHeight="1"/>
-    <row r="418" ht="14.25" customHeight="1"/>
-    <row r="419" ht="14.25" customHeight="1"/>
-    <row r="420" ht="14.25" customHeight="1"/>
-    <row r="421" ht="14.25" customHeight="1"/>
-    <row r="422" ht="14.25" customHeight="1"/>
-    <row r="423" ht="14.25" customHeight="1"/>
-    <row r="424" ht="14.25" customHeight="1"/>
-    <row r="425" ht="14.25" customHeight="1"/>
-    <row r="426" ht="14.25" customHeight="1"/>
-    <row r="427" ht="14.25" customHeight="1"/>
-    <row r="428" ht="14.25" customHeight="1"/>
-    <row r="429" ht="14.25" customHeight="1"/>
-    <row r="430" ht="14.25" customHeight="1"/>
-    <row r="431" ht="14.25" customHeight="1"/>
-    <row r="432" ht="14.25" customHeight="1"/>
-    <row r="433" ht="14.25" customHeight="1"/>
-    <row r="434" ht="14.25" customHeight="1"/>
-    <row r="435" ht="14.25" customHeight="1"/>
-    <row r="436" ht="14.25" customHeight="1"/>
-    <row r="437" ht="14.25" customHeight="1"/>
-    <row r="438" ht="14.25" customHeight="1"/>
-    <row r="439" ht="14.25" customHeight="1"/>
-    <row r="440" ht="14.25" customHeight="1"/>
-    <row r="441" ht="14.25" customHeight="1"/>
-    <row r="442" ht="14.25" customHeight="1"/>
-    <row r="443" ht="14.25" customHeight="1"/>
-    <row r="444" ht="14.25" customHeight="1"/>
-    <row r="445" ht="14.25" customHeight="1"/>
-    <row r="446" ht="14.25" customHeight="1"/>
-    <row r="447" ht="14.25" customHeight="1"/>
-    <row r="448" ht="14.25" customHeight="1"/>
-    <row r="449" ht="14.25" customHeight="1"/>
-    <row r="450" ht="14.25" customHeight="1"/>
-    <row r="451" ht="14.25" customHeight="1"/>
-    <row r="452" ht="14.25" customHeight="1"/>
-    <row r="453" ht="14.25" customHeight="1"/>
-    <row r="454" ht="14.25" customHeight="1"/>
-    <row r="455" ht="14.25" customHeight="1"/>
-    <row r="456" ht="14.25" customHeight="1"/>
-    <row r="457" ht="14.25" customHeight="1"/>
-    <row r="458" ht="14.25" customHeight="1"/>
-    <row r="459" ht="14.25" customHeight="1"/>
-    <row r="460" ht="14.25" customHeight="1"/>
-    <row r="461" ht="14.25" customHeight="1"/>
-    <row r="462" ht="14.25" customHeight="1"/>
-    <row r="463" ht="14.25" customHeight="1"/>
-    <row r="464" ht="14.25" customHeight="1"/>
-    <row r="465" ht="14.25" customHeight="1"/>
-    <row r="466" ht="14.25" customHeight="1"/>
-    <row r="467" ht="14.25" customHeight="1"/>
-    <row r="468" ht="14.25" customHeight="1"/>
-    <row r="469" ht="14.25" customHeight="1"/>
-    <row r="470" ht="14.25" customHeight="1"/>
-    <row r="471" ht="14.25" customHeight="1"/>
-    <row r="472" ht="14.25" customHeight="1"/>
-    <row r="473" ht="14.25" customHeight="1"/>
-    <row r="474" ht="14.25" customHeight="1"/>
-    <row r="475" ht="14.25" customHeight="1"/>
-    <row r="476" ht="14.25" customHeight="1"/>
-    <row r="477" ht="14.25" customHeight="1"/>
-    <row r="478" ht="14.25" customHeight="1"/>
-    <row r="479" ht="14.25" customHeight="1"/>
-    <row r="480" ht="14.25" customHeight="1"/>
-    <row r="481" ht="14.25" customHeight="1"/>
-    <row r="482" ht="14.25" customHeight="1"/>
-    <row r="483" ht="14.25" customHeight="1"/>
-    <row r="484" ht="14.25" customHeight="1"/>
-    <row r="485" ht="14.25" customHeight="1"/>
-    <row r="486" ht="14.25" customHeight="1"/>
-    <row r="487" ht="14.25" customHeight="1"/>
-    <row r="488" ht="14.25" customHeight="1"/>
-    <row r="489" ht="14.25" customHeight="1"/>
-    <row r="490" ht="14.25" customHeight="1"/>
-    <row r="491" ht="14.25" customHeight="1"/>
-    <row r="492" ht="14.25" customHeight="1"/>
-    <row r="493" ht="14.25" customHeight="1"/>
-    <row r="494" ht="14.25" customHeight="1"/>
-    <row r="495" ht="14.25" customHeight="1"/>
-    <row r="496" ht="14.25" customHeight="1"/>
-    <row r="497" ht="14.25" customHeight="1"/>
-    <row r="498" ht="14.25" customHeight="1"/>
-    <row r="499" ht="14.25" customHeight="1"/>
-    <row r="500" ht="14.25" customHeight="1"/>
-    <row r="501" ht="14.25" customHeight="1"/>
-    <row r="502" ht="14.25" customHeight="1"/>
-    <row r="503" ht="14.25" customHeight="1"/>
-    <row r="504" ht="14.25" customHeight="1"/>
-    <row r="505" ht="14.25" customHeight="1"/>
-    <row r="506" ht="14.25" customHeight="1"/>
-    <row r="507" ht="14.25" customHeight="1"/>
-    <row r="508" ht="14.25" customHeight="1"/>
-    <row r="509" ht="14.25" customHeight="1"/>
-    <row r="510" ht="14.25" customHeight="1"/>
-    <row r="511" ht="14.25" customHeight="1"/>
-    <row r="512" ht="14.25" customHeight="1"/>
-    <row r="513" ht="14.25" customHeight="1"/>
-    <row r="514" ht="14.25" customHeight="1"/>
-    <row r="515" ht="14.25" customHeight="1"/>
-    <row r="516" ht="14.25" customHeight="1"/>
-    <row r="517" ht="14.25" customHeight="1"/>
-    <row r="518" ht="14.25" customHeight="1"/>
-    <row r="519" ht="14.25" customHeight="1"/>
-    <row r="520" ht="14.25" customHeight="1"/>
-    <row r="521" ht="14.25" customHeight="1"/>
-    <row r="522" ht="14.25" customHeight="1"/>
-    <row r="523" ht="14.25" customHeight="1"/>
-    <row r="524" ht="14.25" customHeight="1"/>
-    <row r="525" ht="14.25" customHeight="1"/>
-    <row r="526" ht="14.25" customHeight="1"/>
-    <row r="527" ht="14.25" customHeight="1"/>
-    <row r="528" ht="14.25" customHeight="1"/>
-    <row r="529" ht="14.25" customHeight="1"/>
-    <row r="530" ht="14.25" customHeight="1"/>
-    <row r="531" ht="14.25" customHeight="1"/>
-    <row r="532" ht="14.25" customHeight="1"/>
-    <row r="533" ht="14.25" customHeight="1"/>
-    <row r="534" ht="14.25" customHeight="1"/>
-    <row r="535" ht="14.25" customHeight="1"/>
-    <row r="536" ht="14.25" customHeight="1"/>
-    <row r="537" ht="14.25" customHeight="1"/>
-    <row r="538" ht="14.25" customHeight="1"/>
-    <row r="539" ht="14.25" customHeight="1"/>
-    <row r="540" ht="14.25" customHeight="1"/>
-    <row r="541" ht="14.25" customHeight="1"/>
-    <row r="542" ht="14.25" customHeight="1"/>
-    <row r="543" ht="14.25" customHeight="1"/>
-    <row r="544" ht="14.25" customHeight="1"/>
-    <row r="545" ht="14.25" customHeight="1"/>
-    <row r="546" ht="14.25" customHeight="1"/>
-    <row r="547" ht="14.25" customHeight="1"/>
-    <row r="548" ht="14.25" customHeight="1"/>
-    <row r="549" ht="14.25" customHeight="1"/>
-    <row r="550" ht="14.25" customHeight="1"/>
-    <row r="551" ht="14.25" customHeight="1"/>
-    <row r="552" ht="14.25" customHeight="1"/>
-    <row r="553" ht="14.25" customHeight="1"/>
-    <row r="554" ht="14.25" customHeight="1"/>
-    <row r="555" ht="14.25" customHeight="1"/>
-    <row r="556" ht="14.25" customHeight="1"/>
-    <row r="557" ht="14.25" customHeight="1"/>
-    <row r="558" ht="14.25" customHeight="1"/>
-    <row r="559" ht="14.25" customHeight="1"/>
-    <row r="560" ht="14.25" customHeight="1"/>
-    <row r="561" ht="14.25" customHeight="1"/>
-    <row r="562" ht="14.25" customHeight="1"/>
-    <row r="563" ht="14.25" customHeight="1"/>
-    <row r="564" ht="14.25" customHeight="1"/>
-    <row r="565" ht="14.25" customHeight="1"/>
-    <row r="566" ht="14.25" customHeight="1"/>
-    <row r="567" ht="14.25" customHeight="1"/>
-    <row r="568" ht="14.25" customHeight="1"/>
-    <row r="569" ht="14.25" customHeight="1"/>
-    <row r="570" ht="14.25" customHeight="1"/>
-    <row r="571" ht="14.25" customHeight="1"/>
-    <row r="572" ht="14.25" customHeight="1"/>
-    <row r="573" ht="14.25" customHeight="1"/>
-    <row r="574" ht="14.25" customHeight="1"/>
-    <row r="575" ht="14.25" customHeight="1"/>
-    <row r="576" ht="14.25" customHeight="1"/>
-    <row r="577" ht="14.25" customHeight="1"/>
-    <row r="578" ht="14.25" customHeight="1"/>
-    <row r="579" ht="14.25" customHeight="1"/>
-    <row r="580" ht="14.25" customHeight="1"/>
-    <row r="581" ht="14.25" customHeight="1"/>
-    <row r="582" ht="14.25" customHeight="1"/>
-    <row r="583" ht="14.25" customHeight="1"/>
-    <row r="584" ht="14.25" customHeight="1"/>
-    <row r="585" ht="14.25" customHeight="1"/>
-    <row r="586" ht="14.25" customHeight="1"/>
-    <row r="587" ht="14.25" customHeight="1"/>
-    <row r="588" ht="14.25" customHeight="1"/>
-    <row r="589" ht="14.25" customHeight="1"/>
-    <row r="590" ht="14.25" customHeight="1"/>
-    <row r="591" ht="14.25" customHeight="1"/>
-    <row r="592" ht="14.25" customHeight="1"/>
-    <row r="593" ht="14.25" customHeight="1"/>
-    <row r="594" ht="14.25" customHeight="1"/>
-    <row r="595" ht="14.25" customHeight="1"/>
-    <row r="596" ht="14.25" customHeight="1"/>
-    <row r="597" ht="14.25" customHeight="1"/>
-    <row r="598" ht="14.25" customHeight="1"/>
-    <row r="599" ht="14.25" customHeight="1"/>
-    <row r="600" ht="14.25" customHeight="1"/>
-    <row r="601" ht="14.25" customHeight="1"/>
-    <row r="602" ht="14.25" customHeight="1"/>
-    <row r="603" ht="14.25" customHeight="1"/>
-    <row r="604" ht="14.25" customHeight="1"/>
-    <row r="605" ht="14.25" customHeight="1"/>
-    <row r="606" ht="14.25" customHeight="1"/>
-    <row r="607" ht="14.25" customHeight="1"/>
-    <row r="608" ht="14.25" customHeight="1"/>
-    <row r="609" ht="14.25" customHeight="1"/>
-    <row r="610" ht="14.25" customHeight="1"/>
-    <row r="611" ht="14.25" customHeight="1"/>
-    <row r="612" ht="14.25" customHeight="1"/>
-    <row r="613" ht="14.25" customHeight="1"/>
-    <row r="614" ht="14.25" customHeight="1"/>
-    <row r="615" ht="14.25" customHeight="1"/>
-    <row r="616" ht="14.25" customHeight="1"/>
-    <row r="617" ht="14.25" customHeight="1"/>
-    <row r="618" ht="14.25" customHeight="1"/>
-    <row r="619" ht="14.25" customHeight="1"/>
-    <row r="620" ht="14.25" customHeight="1"/>
-    <row r="621" ht="14.25" customHeight="1"/>
-    <row r="622" ht="14.25" customHeight="1"/>
-    <row r="623" ht="14.25" customHeight="1"/>
-    <row r="624" ht="14.25" customHeight="1"/>
-    <row r="625" ht="14.25" customHeight="1"/>
-    <row r="626" ht="14.25" customHeight="1"/>
-    <row r="627" ht="14.25" customHeight="1"/>
-    <row r="628" ht="14.25" customHeight="1"/>
-    <row r="629" ht="14.25" customHeight="1"/>
-    <row r="630" ht="14.25" customHeight="1"/>
-    <row r="631" ht="14.25" customHeight="1"/>
-    <row r="632" ht="14.25" customHeight="1"/>
-    <row r="633" ht="14.25" customHeight="1"/>
-    <row r="634" ht="14.25" customHeight="1"/>
-    <row r="635" ht="14.25" customHeight="1"/>
-    <row r="636" ht="14.25" customHeight="1"/>
-    <row r="637" ht="14.25" customHeight="1"/>
-    <row r="638" ht="14.25" customHeight="1"/>
-    <row r="639" ht="14.25" customHeight="1"/>
-    <row r="640" ht="14.25" customHeight="1"/>
-    <row r="641" ht="14.25" customHeight="1"/>
-    <row r="642" ht="14.25" customHeight="1"/>
-    <row r="643" ht="14.25" customHeight="1"/>
-    <row r="644" ht="14.25" customHeight="1"/>
-    <row r="645" ht="14.25" customHeight="1"/>
-    <row r="646" ht="14.25" customHeight="1"/>
-    <row r="647" ht="14.25" customHeight="1"/>
-    <row r="648" ht="14.25" customHeight="1"/>
-    <row r="649" ht="14.25" customHeight="1"/>
-    <row r="650" ht="14.25" customHeight="1"/>
-    <row r="651" ht="14.25" customHeight="1"/>
-    <row r="652" ht="14.25" customHeight="1"/>
-    <row r="653" ht="14.25" customHeight="1"/>
-    <row r="654" ht="14.25" customHeight="1"/>
-    <row r="655" ht="14.25" customHeight="1"/>
-    <row r="656" ht="14.25" customHeight="1"/>
-    <row r="657" ht="14.25" customHeight="1"/>
-    <row r="658" ht="14.25" customHeight="1"/>
-    <row r="659" ht="14.25" customHeight="1"/>
-    <row r="660" ht="14.25" customHeight="1"/>
-    <row r="661" ht="14.25" customHeight="1"/>
-    <row r="662" ht="14.25" customHeight="1"/>
-    <row r="663" ht="14.25" customHeight="1"/>
-    <row r="664" ht="14.25" customHeight="1"/>
-    <row r="665" ht="14.25" customHeight="1"/>
-    <row r="666" ht="14.25" customHeight="1"/>
-    <row r="667" ht="14.25" customHeight="1"/>
-    <row r="668" ht="14.25" customHeight="1"/>
-    <row r="669" ht="14.25" customHeight="1"/>
-    <row r="670" ht="14.25" customHeight="1"/>
-    <row r="671" ht="14.25" customHeight="1"/>
-    <row r="672" ht="14.25" customHeight="1"/>
-    <row r="673" ht="14.25" customHeight="1"/>
-    <row r="674" ht="14.25" customHeight="1"/>
-    <row r="675" ht="14.25" customHeight="1"/>
-    <row r="676" ht="14.25" customHeight="1"/>
-    <row r="677" ht="14.25" customHeight="1"/>
-    <row r="678" ht="14.25" customHeight="1"/>
-    <row r="679" ht="14.25" customHeight="1"/>
-    <row r="680" ht="14.25" customHeight="1"/>
-    <row r="681" ht="14.25" customHeight="1"/>
-    <row r="682" ht="14.25" customHeight="1"/>
-    <row r="683" ht="14.25" customHeight="1"/>
-    <row r="684" ht="14.25" customHeight="1"/>
-    <row r="685" ht="14.25" customHeight="1"/>
-    <row r="686" ht="14.25" customHeight="1"/>
-    <row r="687" ht="14.25" customHeight="1"/>
-    <row r="688" ht="14.25" customHeight="1"/>
-    <row r="689" ht="14.25" customHeight="1"/>
-    <row r="690" ht="14.25" customHeight="1"/>
-    <row r="691" ht="14.25" customHeight="1"/>
-    <row r="692" ht="14.25" customHeight="1"/>
-    <row r="693" ht="14.25" customHeight="1"/>
-    <row r="694" ht="14.25" customHeight="1"/>
-    <row r="695" ht="14.25" customHeight="1"/>
-    <row r="696" ht="14.25" customHeight="1"/>
-    <row r="697" ht="14.25" customHeight="1"/>
-    <row r="698" ht="14.25" customHeight="1"/>
-    <row r="699" ht="14.25" customHeight="1"/>
-    <row r="700" ht="14.25" customHeight="1"/>
-    <row r="701" ht="14.25" customHeight="1"/>
-    <row r="702" ht="14.25" customHeight="1"/>
-    <row r="703" ht="14.25" customHeight="1"/>
-    <row r="704" ht="14.25" customHeight="1"/>
-    <row r="705" ht="14.25" customHeight="1"/>
-    <row r="706" ht="14.25" customHeight="1"/>
-    <row r="707" ht="14.25" customHeight="1"/>
-    <row r="708" ht="14.25" customHeight="1"/>
-    <row r="709" ht="14.25" customHeight="1"/>
-    <row r="710" ht="14.25" customHeight="1"/>
-    <row r="711" ht="14.25" customHeight="1"/>
-    <row r="712" ht="14.25" customHeight="1"/>
-    <row r="713" ht="14.25" customHeight="1"/>
-    <row r="714" ht="14.25" customHeight="1"/>
-    <row r="715" ht="14.25" customHeight="1"/>
-    <row r="716" ht="14.25" customHeight="1"/>
-    <row r="717" ht="14.25" customHeight="1"/>
-    <row r="718" ht="14.25" customHeight="1"/>
-    <row r="719" ht="14.25" customHeight="1"/>
-    <row r="720" ht="14.25" customHeight="1"/>
-    <row r="721" ht="14.25" customHeight="1"/>
-    <row r="722" ht="14.25" customHeight="1"/>
-    <row r="723" ht="14.25" customHeight="1"/>
-    <row r="724" ht="14.25" customHeight="1"/>
-    <row r="725" ht="14.25" customHeight="1"/>
-    <row r="726" ht="14.25" customHeight="1"/>
-    <row r="727" ht="14.25" customHeight="1"/>
-    <row r="728" ht="14.25" customHeight="1"/>
-    <row r="729" ht="14.25" customHeight="1"/>
-    <row r="730" ht="14.25" customHeight="1"/>
-    <row r="731" ht="14.25" customHeight="1"/>
-    <row r="732" ht="14.25" customHeight="1"/>
-    <row r="733" ht="14.25" customHeight="1"/>
-    <row r="734" ht="14.25" customHeight="1"/>
-    <row r="735" ht="14.25" customHeight="1"/>
-    <row r="736" ht="14.25" customHeight="1"/>
-    <row r="737" ht="14.25" customHeight="1"/>
-    <row r="738" ht="14.25" customHeight="1"/>
-    <row r="739" ht="14.25" customHeight="1"/>
-    <row r="740" ht="14.25" customHeight="1"/>
-    <row r="741" ht="14.25" customHeight="1"/>
-    <row r="742" ht="14.25" customHeight="1"/>
-    <row r="743" ht="14.25" customHeight="1"/>
-    <row r="744" ht="14.25" customHeight="1"/>
-    <row r="745" ht="14.25" customHeight="1"/>
-    <row r="746" ht="14.25" customHeight="1"/>
-    <row r="747" ht="14.25" customHeight="1"/>
-    <row r="748" ht="14.25" customHeight="1"/>
-    <row r="749" ht="14.25" customHeight="1"/>
-    <row r="750" ht="14.25" customHeight="1"/>
-    <row r="751" ht="14.25" customHeight="1"/>
-    <row r="752" ht="14.25" customHeight="1"/>
-    <row r="753" ht="14.25" customHeight="1"/>
-    <row r="754" ht="14.25" customHeight="1"/>
-    <row r="755" ht="14.25" customHeight="1"/>
-    <row r="756" ht="14.25" customHeight="1"/>
-    <row r="757" ht="14.25" customHeight="1"/>
-    <row r="758" ht="14.25" customHeight="1"/>
-    <row r="759" ht="14.25" customHeight="1"/>
-    <row r="760" ht="14.25" customHeight="1"/>
-    <row r="761" ht="14.25" customHeight="1"/>
-    <row r="762" ht="14.25" customHeight="1"/>
-    <row r="763" ht="14.25" customHeight="1"/>
-    <row r="764" ht="14.25" customHeight="1"/>
-    <row r="765" ht="14.25" customHeight="1"/>
-    <row r="766" ht="14.25" customHeight="1"/>
-    <row r="767" ht="14.25" customHeight="1"/>
-    <row r="768" ht="14.25" customHeight="1"/>
-    <row r="769" ht="14.25" customHeight="1"/>
-    <row r="770" ht="14.25" customHeight="1"/>
-    <row r="771" ht="14.25" customHeight="1"/>
-    <row r="772" ht="14.25" customHeight="1"/>
-    <row r="773" ht="14.25" customHeight="1"/>
-    <row r="774" ht="14.25" customHeight="1"/>
-    <row r="775" ht="14.25" customHeight="1"/>
-    <row r="776" ht="14.25" customHeight="1"/>
-    <row r="777" ht="14.25" customHeight="1"/>
-    <row r="778" ht="14.25" customHeight="1"/>
-    <row r="779" ht="14.25" customHeight="1"/>
-    <row r="780" ht="14.25" customHeight="1"/>
-    <row r="781" ht="14.25" customHeight="1"/>
-    <row r="782" ht="14.25" customHeight="1"/>
-    <row r="783" ht="14.25" customHeight="1"/>
-    <row r="784" ht="14.25" customHeight="1"/>
-    <row r="785" ht="14.25" customHeight="1"/>
-    <row r="786" ht="14.25" customHeight="1"/>
-    <row r="787" ht="14.25" customHeight="1"/>
-    <row r="788" ht="14.25" customHeight="1"/>
-    <row r="789" ht="14.25" customHeight="1"/>
-    <row r="790" ht="14.25" customHeight="1"/>
-    <row r="791" ht="14.25" customHeight="1"/>
-    <row r="792" ht="14.25" customHeight="1"/>
-    <row r="793" ht="14.25" customHeight="1"/>
-    <row r="794" ht="14.25" customHeight="1"/>
-    <row r="795" ht="14.25" customHeight="1"/>
-    <row r="796" ht="14.25" customHeight="1"/>
-    <row r="797" ht="14.25" customHeight="1"/>
-    <row r="798" ht="14.25" customHeight="1"/>
-    <row r="799" ht="14.25" customHeight="1"/>
-    <row r="800" ht="14.25" customHeight="1"/>
-    <row r="801" ht="14.25" customHeight="1"/>
-    <row r="802" ht="14.25" customHeight="1"/>
-    <row r="803" ht="14.25" customHeight="1"/>
-    <row r="804" ht="14.25" customHeight="1"/>
-    <row r="805" ht="14.25" customHeight="1"/>
-    <row r="806" ht="14.25" customHeight="1"/>
-    <row r="807" ht="14.25" customHeight="1"/>
-    <row r="808" ht="14.25" customHeight="1"/>
-    <row r="809" ht="14.25" customHeight="1"/>
-    <row r="810" ht="14.25" customHeight="1"/>
-    <row r="811" ht="14.25" customHeight="1"/>
-    <row r="812" ht="14.25" customHeight="1"/>
-    <row r="813" ht="14.25" customHeight="1"/>
-    <row r="814" ht="14.25" customHeight="1"/>
-    <row r="815" ht="14.25" customHeight="1"/>
-    <row r="816" ht="14.25" customHeight="1"/>
-    <row r="817" ht="14.25" customHeight="1"/>
-    <row r="818" ht="14.25" customHeight="1"/>
-    <row r="819" ht="14.25" customHeight="1"/>
-    <row r="820" ht="14.25" customHeight="1"/>
-    <row r="821" ht="14.25" customHeight="1"/>
-    <row r="822" ht="14.25" customHeight="1"/>
-    <row r="823" ht="14.25" customHeight="1"/>
-    <row r="824" ht="14.25" customHeight="1"/>
-    <row r="825" ht="14.25" customHeight="1"/>
-    <row r="826" ht="14.25" customHeight="1"/>
-    <row r="827" ht="14.25" customHeight="1"/>
-    <row r="828" ht="14.25" customHeight="1"/>
-    <row r="829" ht="14.25" customHeight="1"/>
-    <row r="830" ht="14.25" customHeight="1"/>
-    <row r="831" ht="14.25" customHeight="1"/>
-    <row r="832" ht="14.25" customHeight="1"/>
-    <row r="833" ht="14.25" customHeight="1"/>
-    <row r="834" ht="14.25" customHeight="1"/>
-    <row r="835" ht="14.25" customHeight="1"/>
-    <row r="836" ht="14.25" customHeight="1"/>
-    <row r="837" ht="14.25" customHeight="1"/>
-    <row r="838" ht="14.25" customHeight="1"/>
-    <row r="839" ht="14.25" customHeight="1"/>
-    <row r="840" ht="14.25" customHeight="1"/>
-    <row r="841" ht="14.25" customHeight="1"/>
-    <row r="842" ht="14.25" customHeight="1"/>
-    <row r="843" ht="14.25" customHeight="1"/>
-    <row r="844" ht="14.25" customHeight="1"/>
-    <row r="845" ht="14.25" customHeight="1"/>
-    <row r="846" ht="14.25" customHeight="1"/>
-    <row r="847" ht="14.25" customHeight="1"/>
-    <row r="848" ht="14.25" customHeight="1"/>
-    <row r="849" ht="14.25" customHeight="1"/>
-    <row r="850" ht="14.25" customHeight="1"/>
-    <row r="851" ht="14.25" customHeight="1"/>
-    <row r="852" ht="14.25" customHeight="1"/>
-    <row r="853" ht="14.25" customHeight="1"/>
-    <row r="854" ht="14.25" customHeight="1"/>
-    <row r="855" ht="14.25" customHeight="1"/>
-    <row r="856" ht="14.25" customHeight="1"/>
-    <row r="857" ht="14.25" customHeight="1"/>
-    <row r="858" ht="14.25" customHeight="1"/>
-    <row r="859" ht="14.25" customHeight="1"/>
-    <row r="860" ht="14.25" customHeight="1"/>
-    <row r="861" ht="14.25" customHeight="1"/>
-    <row r="862" ht="14.25" customHeight="1"/>
-    <row r="863" ht="14.25" customHeight="1"/>
-    <row r="864" ht="14.25" customHeight="1"/>
-    <row r="865" ht="14.25" customHeight="1"/>
-    <row r="866" ht="14.25" customHeight="1"/>
-    <row r="867" ht="14.25" customHeight="1"/>
-    <row r="868" ht="14.25" customHeight="1"/>
-    <row r="869" ht="14.25" customHeight="1"/>
-    <row r="870" ht="14.25" customHeight="1"/>
-    <row r="871" ht="14.25" customHeight="1"/>
-    <row r="872" ht="14.25" customHeight="1"/>
-    <row r="873" ht="14.25" customHeight="1"/>
-    <row r="874" ht="14.25" customHeight="1"/>
-    <row r="875" ht="14.25" customHeight="1"/>
-    <row r="876" ht="14.25" customHeight="1"/>
-    <row r="877" ht="14.25" customHeight="1"/>
-    <row r="878" ht="14.25" customHeight="1"/>
-    <row r="879" ht="14.25" customHeight="1"/>
-    <row r="880" ht="14.25" customHeight="1"/>
-    <row r="881" ht="14.25" customHeight="1"/>
-    <row r="882" ht="14.25" customHeight="1"/>
-    <row r="883" ht="14.25" customHeight="1"/>
-    <row r="884" ht="14.25" customHeight="1"/>
-    <row r="885" ht="14.25" customHeight="1"/>
-    <row r="886" ht="14.25" customHeight="1"/>
-    <row r="887" ht="14.25" customHeight="1"/>
-    <row r="888" ht="14.25" customHeight="1"/>
-    <row r="889" ht="14.25" customHeight="1"/>
-    <row r="890" ht="14.25" customHeight="1"/>
-    <row r="891" ht="14.25" customHeight="1"/>
-    <row r="892" ht="14.25" customHeight="1"/>
-    <row r="893" ht="14.25" customHeight="1"/>
-    <row r="894" ht="14.25" customHeight="1"/>
-    <row r="895" ht="14.25" customHeight="1"/>
-    <row r="896" ht="14.25" customHeight="1"/>
-    <row r="897" ht="14.25" customHeight="1"/>
-    <row r="898" ht="14.25" customHeight="1"/>
-    <row r="899" ht="14.25" customHeight="1"/>
-    <row r="900" ht="14.25" customHeight="1"/>
-    <row r="901" ht="14.25" customHeight="1"/>
-    <row r="902" ht="14.25" customHeight="1"/>
-    <row r="903" ht="14.25" customHeight="1"/>
-    <row r="904" ht="14.25" customHeight="1"/>
-    <row r="905" ht="14.25" customHeight="1"/>
-    <row r="906" ht="14.25" customHeight="1"/>
-    <row r="907" ht="14.25" customHeight="1"/>
-    <row r="908" ht="14.25" customHeight="1"/>
-    <row r="909" ht="14.25" customHeight="1"/>
-    <row r="910" ht="14.25" customHeight="1"/>
-    <row r="911" ht="14.25" customHeight="1"/>
-    <row r="912" ht="14.25" customHeight="1"/>
-    <row r="913" ht="14.25" customHeight="1"/>
-    <row r="914" ht="14.25" customHeight="1"/>
-    <row r="915" ht="14.25" customHeight="1"/>
-    <row r="916" ht="14.25" customHeight="1"/>
-    <row r="917" ht="14.25" customHeight="1"/>
-    <row r="918" ht="14.25" customHeight="1"/>
-    <row r="919" ht="14.25" customHeight="1"/>
-    <row r="920" ht="14.25" customHeight="1"/>
-    <row r="921" ht="14.25" customHeight="1"/>
-    <row r="922" ht="14.25" customHeight="1"/>
-    <row r="923" ht="14.25" customHeight="1"/>
-    <row r="924" ht="14.25" customHeight="1"/>
-    <row r="925" ht="14.25" customHeight="1"/>
-    <row r="926" ht="14.25" customHeight="1"/>
-    <row r="927" ht="14.25" customHeight="1"/>
-    <row r="928" ht="14.25" customHeight="1"/>
-    <row r="929" ht="14.25" customHeight="1"/>
-    <row r="930" ht="14.25" customHeight="1"/>
-    <row r="931" ht="14.25" customHeight="1"/>
-    <row r="932" ht="14.25" customHeight="1"/>
-    <row r="933" ht="14.25" customHeight="1"/>
-    <row r="934" ht="14.25" customHeight="1"/>
-    <row r="935" ht="14.25" customHeight="1"/>
-    <row r="936" ht="14.25" customHeight="1"/>
-    <row r="937" ht="14.25" customHeight="1"/>
-    <row r="938" ht="14.25" customHeight="1"/>
-    <row r="939" ht="14.25" customHeight="1"/>
-    <row r="940" ht="14.25" customHeight="1"/>
-    <row r="941" ht="14.25" customHeight="1"/>
-    <row r="942" ht="14.25" customHeight="1"/>
-    <row r="943" ht="14.25" customHeight="1"/>
-    <row r="944" ht="14.25" customHeight="1"/>
-    <row r="945" ht="14.25" customHeight="1"/>
-    <row r="946" ht="14.25" customHeight="1"/>
-    <row r="947" ht="14.25" customHeight="1"/>
-    <row r="948" ht="14.25" customHeight="1"/>
-    <row r="949" ht="14.25" customHeight="1"/>
-    <row r="950" ht="14.25" customHeight="1"/>
-    <row r="951" ht="14.25" customHeight="1"/>
-    <row r="952" ht="14.25" customHeight="1"/>
-    <row r="953" ht="14.25" customHeight="1"/>
-    <row r="954" ht="14.25" customHeight="1"/>
-    <row r="955" ht="14.25" customHeight="1"/>
-    <row r="956" ht="14.25" customHeight="1"/>
-    <row r="957" ht="14.25" customHeight="1"/>
-    <row r="958" ht="14.25" customHeight="1"/>
-    <row r="959" ht="14.25" customHeight="1"/>
-    <row r="960" ht="14.25" customHeight="1"/>
-    <row r="961" ht="14.25" customHeight="1"/>
-    <row r="962" ht="14.25" customHeight="1"/>
-    <row r="963" ht="14.25" customHeight="1"/>
-    <row r="964" ht="14.25" customHeight="1"/>
-    <row r="965" ht="14.25" customHeight="1"/>
-    <row r="966" ht="14.25" customHeight="1"/>
-    <row r="967" ht="14.25" customHeight="1"/>
-    <row r="968" ht="14.25" customHeight="1"/>
-    <row r="969" ht="14.25" customHeight="1"/>
-    <row r="970" ht="14.25" customHeight="1"/>
-    <row r="971" ht="14.25" customHeight="1"/>
-    <row r="972" ht="14.25" customHeight="1"/>
-    <row r="973" ht="14.25" customHeight="1"/>
-    <row r="974" ht="14.25" customHeight="1"/>
-    <row r="975" ht="14.25" customHeight="1"/>
-    <row r="976" ht="14.25" customHeight="1"/>
-    <row r="977" ht="14.25" customHeight="1"/>
-    <row r="978" ht="14.25" customHeight="1"/>
-    <row r="979" ht="14.25" customHeight="1"/>
-    <row r="980" ht="14.25" customHeight="1"/>
-    <row r="981" ht="14.25" customHeight="1"/>
-    <row r="982" ht="14.25" customHeight="1"/>
-    <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
-    <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
-    <row r="987" ht="14.25" customHeight="1"/>
-    <row r="988" ht="14.25" customHeight="1"/>
-    <row r="989" ht="14.25" customHeight="1"/>
-    <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
-    <row r="992" ht="14.25" customHeight="1"/>
-    <row r="993" ht="14.25" customHeight="1"/>
-    <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
+    <row r="156" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="1.0" right="1.0" top="1.0"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/razorpay python data.xlsx
+++ b/razorpay python data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\StrongBase.edu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E18C964-1260-4670-80C6-9260B0188141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9733E45F-6E1A-46F9-A649-DC3BB6F7CDF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="599">
   <si>
     <t>Email</t>
   </si>
@@ -1798,17 +1798,72 @@
   </si>
   <si>
     <t>PY0122154</t>
+  </si>
+  <si>
+    <t>py0122155</t>
+  </si>
+  <si>
+    <t>RamyaSree M</t>
+  </si>
+  <si>
+    <t>M Gowtham</t>
+  </si>
+  <si>
+    <t>py0122156</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Sandhya</t>
+    </r>
+  </si>
+  <si>
+    <t>py0122157</t>
+  </si>
+  <si>
+    <t>Nellepalli Keerthi</t>
+  </si>
+  <si>
+    <t>py0122158</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1833,6 +1888,34 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1842,7 +1925,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1865,27 +1948,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2104,7 +2211,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="E152" sqref="E152"/>
+      <selection activeCell="G157" sqref="G157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4735,7 +4842,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
         <v>587</v>
       </c>
@@ -4752,10 +4859,38 @@
         <v>590</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C156" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="E156" s="9" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C157" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="E157" s="9" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C158" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="E158" s="9" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C159" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="E159" s="9" t="s">
+        <v>598</v>
+      </c>
+    </row>
     <row r="160" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5598,8 +5733,9 @@
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/razorpay python data.xlsx
+++ b/razorpay python data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\StrongBase.edu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9733E45F-6E1A-46F9-A649-DC3BB6F7CDF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A601856-E557-49F2-9DBE-550DA1BBABFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="601">
   <si>
     <t>Email</t>
   </si>
@@ -1846,6 +1846,12 @@
   </si>
   <si>
     <t>py0122158</t>
+  </si>
+  <si>
+    <t>P Sai Srinivas</t>
+  </si>
+  <si>
+    <t>py0122159</t>
   </si>
 </sst>
 </file>
@@ -1986,7 +1992,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2211,7 +2217,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="G157" sqref="G157"/>
+      <selection activeCell="E159" sqref="E159:E160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4891,7 +4897,14 @@
         <v>598</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C160" t="s">
+        <v>599</v>
+      </c>
+      <c r="E160" s="9" t="s">
+        <v>600</v>
+      </c>
+    </row>
     <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
